--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_12_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_12_2.xlsx
@@ -478,497 +478,497 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_0</t>
+          <t>model_12_2_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6279079267794246</v>
+        <v>0.08784013135839541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1812015171879869</v>
+        <v>0.1960313320589125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4968929932482401</v>
+        <v>-7.039412453450664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3346954087867194</v>
+        <v>-0.0989564180031457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4117963016033173</v>
+        <v>1.009492158889771</v>
       </c>
       <c r="G2" t="n">
-        <v>1.092455148696899</v>
+        <v>1.384710073471069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6340901851654053</v>
+        <v>0.9096595048904419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8767540454864502</v>
+        <v>1.161158084869385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_1</t>
+          <t>model_12_2_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7347645191795165</v>
+        <v>0.1375732173525326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2911246399290855</v>
+        <v>-0.1105779537300349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6966650670914722</v>
+        <v>-7.659803193464159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4835247092424437</v>
+        <v>-0.3948228453951272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2935375273227692</v>
+        <v>0.9544523954391479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9457938075065613</v>
+        <v>1.912796258926392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3823077380657196</v>
+        <v>0.9798567891120911</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6806233525276184</v>
+        <v>1.47377073764801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_6</t>
+          <t>model_12_2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7534556454617893</v>
+        <v>0.1634858989596194</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1008142845808453</v>
+        <v>0.2277415947864321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8207891656194952</v>
+        <v>-7.004864560493413</v>
       </c>
       <c r="E4" t="n">
-        <v>0.329309611688958</v>
+        <v>-0.06984884197252339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2728519439697266</v>
+        <v>0.9257745742797852</v>
       </c>
       <c r="G4" t="n">
-        <v>1.468725442886353</v>
+        <v>1.33009397983551</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2258681058883667</v>
+        <v>0.9057504534721375</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8838515877723694</v>
+        <v>1.13040292263031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_24</t>
+          <t>model_12_2_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7535931383216143</v>
+        <v>0.168960404665644</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1131918267834211</v>
+        <v>-0.007253844271601029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8117423510945481</v>
+        <v>-7.825180395176012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3186040106059137</v>
+        <v>-0.3139827439344567</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272699773311615</v>
+        <v>0.919715940952301</v>
       </c>
       <c r="G5" t="n">
-        <v>1.485239744186401</v>
+        <v>1.73483669757843</v>
       </c>
       <c r="H5" t="n">
-        <v>0.237270250916481</v>
+        <v>0.9985692501068115</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8979597091674805</v>
+        <v>1.388355016708374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_5</t>
+          <t>model_12_2_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7535961850248919</v>
+        <v>0.2490739897418898</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09395324810921402</v>
+        <v>0.8003617340255746</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8205704708663222</v>
+        <v>-0.7064691575528568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3328901756681587</v>
+        <v>0.7417150706239545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2726964056491852</v>
+        <v>0.8310537934303284</v>
       </c>
       <c r="G6" t="n">
-        <v>1.459571361541748</v>
+        <v>0.3438456058502197</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2261437326669693</v>
+        <v>0.1930869966745377</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8791331052780151</v>
+        <v>0.2729040384292603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_23</t>
+          <t>model_12_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7537730432285888</v>
+        <v>0.2597434543301836</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1122550479918478</v>
+        <v>0.226854744025784</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8118667319154858</v>
+        <v>-9.032607178025197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3191627897721034</v>
+        <v>-0.1728013225634195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2725006937980652</v>
+        <v>0.8192458748817444</v>
       </c>
       <c r="G7" t="n">
-        <v>1.483989953994751</v>
+        <v>1.331621527671814</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2371134907007217</v>
+        <v>1.135189533233643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8972232937812805</v>
+        <v>1.239182591438293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_22</t>
+          <t>model_12_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7539830090912519</v>
+        <v>0.2736879263779448</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1111774928829063</v>
+        <v>0.2128805143831993</v>
       </c>
       <c r="D8" t="n">
-        <v>0.81204403241088</v>
+        <v>-8.966855642516753</v>
       </c>
       <c r="E8" t="n">
-        <v>0.319818113220271</v>
+        <v>-0.1815474111484305</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2722683250904083</v>
+        <v>0.8038134574890137</v>
       </c>
       <c r="G8" t="n">
-        <v>1.482552170753479</v>
+        <v>1.355689883232117</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2368900179862976</v>
+        <v>1.127749800682068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8963598012924194</v>
+        <v>1.24842357635498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_8</t>
+          <t>model_12_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7540534954712744</v>
+        <v>0.3204415081996024</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1022294511630084</v>
+        <v>0.3522019101888761</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8175130125115225</v>
+        <v>-8.853129004141731</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3270781996221246</v>
+        <v>-0.05558416119851861</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2721903026103973</v>
+        <v>0.7520709633827209</v>
       </c>
       <c r="G9" t="n">
-        <v>1.470613718032837</v>
+        <v>1.1157306432724</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2299972027540207</v>
+        <v>1.11488151550293</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8867922425270081</v>
+        <v>1.115330815315247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_21</t>
+          <t>model_12_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7542071040161198</v>
+        <v>0.3245167877805639</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1099737962118037</v>
+        <v>0.3719377945417058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8121943678242495</v>
+        <v>-8.967850795419603</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3205327625683572</v>
+        <v>-0.04433371474718317</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2720203101634979</v>
+        <v>0.7475609183311462</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48094630241394</v>
+        <v>1.081738710403442</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2367005497217178</v>
+        <v>1.127862453460693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8954179286956787</v>
+        <v>1.103443741798401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_2</t>
+          <t>model_12_2_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7542342893578371</v>
+        <v>0.3431264298986386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2334598741707342</v>
+        <v>0.4162059970136496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7374018423968616</v>
+        <v>-9.044877514968526</v>
       </c>
       <c r="E11" t="n">
-        <v>0.470950749896767</v>
+        <v>-0.01001332423428702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2719902098178864</v>
+        <v>0.7269654870033264</v>
       </c>
       <c r="G11" t="n">
-        <v>1.022731184959412</v>
+        <v>1.005493640899658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3309651911258698</v>
+        <v>1.136577963829041</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6971935629844666</v>
+        <v>1.067180752754211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_7</t>
+          <t>model_12_2_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7543017309603207</v>
+        <v>0.3443319929828985</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.09784593670841901</v>
+        <v>0.4260090626480175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8175343847260648</v>
+        <v>-9.045639577965616</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3294354736099387</v>
+        <v>-0.001590934982644399</v>
       </c>
       <c r="F12" t="n">
-        <v>0.27191561460495</v>
+        <v>0.7256312966346741</v>
       </c>
       <c r="G12" t="n">
-        <v>1.464765071868896</v>
+        <v>0.9886094331741333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2299702614545822</v>
+        <v>1.136664152145386</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8836857676506042</v>
+        <v>1.058281660079956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_20</t>
+          <t>model_12_2_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7544558683274338</v>
+        <v>0.3466515746479421</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1086201271596972</v>
+        <v>0.4193325080764867</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8123699013512564</v>
+        <v>-8.869577016099955</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3213371994723944</v>
+        <v>0.001519530737263297</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2717449963092804</v>
+        <v>0.723064124584198</v>
       </c>
       <c r="G13" t="n">
-        <v>1.479140162467957</v>
+        <v>1.00010871887207</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2364793121814728</v>
+        <v>1.116742610931396</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8943579196929932</v>
+        <v>1.054995179176331</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_19</t>
+          <t>model_12_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7547089649094665</v>
+        <v>0.34936318046822</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1072405372853025</v>
+        <v>0.4231329618989638</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8126036510126931</v>
+        <v>-8.761985747852822</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3221813226418158</v>
+        <v>0.01022118026580965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2714648842811584</v>
+        <v>0.7200632095336914</v>
       </c>
       <c r="G14" t="n">
-        <v>1.477299451828003</v>
+        <v>0.9935629963874817</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2361847162246704</v>
+        <v>1.104568719863892</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8932454586029053</v>
+        <v>1.045800924301147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_9</t>
+          <t>model_12_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7549234539847167</v>
+        <v>0.3530538810332304</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1009483858273865</v>
+        <v>0.4290445489790222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8181804180092218</v>
+        <v>-8.612831913062367</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3280622241380429</v>
+        <v>0.02283909458266009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2712275087833405</v>
+        <v>0.7159786820411682</v>
       </c>
       <c r="G15" t="n">
-        <v>1.468904495239258</v>
+        <v>0.9833812713623047</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2291560471057892</v>
+        <v>1.087692022323608</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8854955434799194</v>
+        <v>1.032468914985657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_18</t>
+          <t>model_12_2_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7549929084548456</v>
+        <v>0.3533686008114044</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1056885555968849</v>
+        <v>0.431742173039097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8128806530324426</v>
+        <v>-8.638028200150883</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3231380628699313</v>
+        <v>0.02389774744278839</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2711506485939026</v>
+        <v>0.7156304121017456</v>
       </c>
       <c r="G16" t="n">
-        <v>1.475228786468506</v>
+        <v>0.9787349700927734</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2358356118202209</v>
+        <v>1.090543031692505</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8919847011566162</v>
+        <v>1.031350255012512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_17</t>
+          <t>model_12_2_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7552711941427221</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1041443368746651</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8132295536283594</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3241220832443058</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2708427011966705</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4731684923172</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2353958487510681</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8906878232955933</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="18">
@@ -978,276 +978,276 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7555702774787522</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1023571731309922</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8135181644611502</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3252117191767563</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F18" t="n">
-        <v>0.270511656999588</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G18" t="n">
-        <v>1.470784068107605</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2350321114063263</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8892519474029541</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_15</t>
+          <t>model_12_2_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7558330250983915</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1006081594570476</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8137748157245984</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3262642163609286</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2702209055423737</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G19" t="n">
-        <v>1.468450546264648</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2347086369991302</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I19" t="n">
-        <v>0.887864887714386</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_14</t>
+          <t>model_12_2_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7561076682452963</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09871720815127216</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D20" t="n">
-        <v>0.814116243276651</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3274301473843026</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2699169516563416</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G20" t="n">
-        <v>1.465927600860596</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2342783063650131</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8863284587860107</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_13</t>
+          <t>model_12_2_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7566262656541892</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09527002802790019</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8143067135276246</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3293636018722514</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2693429887294769</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G21" t="n">
-        <v>1.461328148841858</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2340382635593414</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8837804794311523</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_12</t>
+          <t>model_12_2_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7570088442251885</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.09253520430913098</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8147499211282097</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3310287859803517</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2689196169376373</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G22" t="n">
-        <v>1.457679390907288</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2334796637296677</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8815860748291016</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_11</t>
+          <t>model_12_2_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7572924099346769</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.09011463103773742</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8152472778270603</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3325505418588683</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2686057984828949</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G23" t="n">
-        <v>1.454449892044067</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2328528165817261</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8795807361602783</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_10</t>
+          <t>model_12_2_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7575786603664828</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08705988261215447</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D24" t="n">
-        <v>0.81558082162288</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3343381530775648</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2682889699935913</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G24" t="n">
-        <v>1.450374126434326</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2324324399232864</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8772249221801758</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_4</t>
+          <t>model_12_2_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7690456299082915</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02144707268934143</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8535274160091866</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4095754997667682</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2555984258651733</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G25" t="n">
-        <v>1.305602312088013</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1846065074205399</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7780752778053284</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_2_3</t>
+          <t>model_12_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7702886036097806</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05383066344266574</v>
+        <v>0.4335885947651786</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8465254607212809</v>
+        <v>-8.649026073955836</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4237815297527339</v>
+        <v>0.0249365123769496</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2542228400707245</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G26" t="n">
-        <v>1.26239550113678</v>
+        <v>0.9755547642707825</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1934314072132111</v>
+        <v>1.091787338256836</v>
       </c>
       <c r="I26" t="n">
-        <v>0.759354293346405</v>
+        <v>1.030252814292908</v>
       </c>
     </row>
   </sheetData>
